--- a/results/team-position.xlsx
+++ b/results/team-position.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E44E44-A356-4A14-A523-B6D60B563D5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580DE027-E393-4436-94AB-EE62F8844F58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="780" windowWidth="23535" windowHeight="14850" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
+    <workbookView xWindow="6060" yWindow="1470" windowWidth="21600" windowHeight="11835" activeTab="5" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
   </bookViews>
   <sheets>
     <sheet name="AR60" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="110">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1"/>
@@ -92,6 +92,948 @@
   </si>
   <si>
     <t>Name3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブルズアイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倉脇　小夏</t>
+    <rPh sb="0" eb="2">
+      <t>クラワキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コナツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宗崎真理子</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ザキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>マリコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏松　　蓮</t>
+    <rPh sb="0" eb="1">
+      <t>ウジ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームFUJIHIRA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塚田由紀子</t>
+    <rPh sb="0" eb="2">
+      <t>ツカダ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ユキコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牧田亜佐美</t>
+    <rPh sb="0" eb="2">
+      <t>マキタ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>アサミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡邊　穂稀</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>St.Paul's</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河野さゆり</t>
+    <rPh sb="0" eb="2">
+      <t>カワノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川崎　彩花</t>
+    <rPh sb="0" eb="2">
+      <t>カワサキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アヤカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林　百合恵</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ユリエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次郎長</t>
+    <rPh sb="0" eb="3">
+      <t>ジロチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村松　佳香</t>
+    <rPh sb="0" eb="2">
+      <t>ムラマツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨシカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和田愛加里</t>
+    <rPh sb="0" eb="2">
+      <t>ワダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川村弥佳沙</t>
+    <rPh sb="0" eb="2">
+      <t>カワムラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄北三銃士</t>
+    <rPh sb="0" eb="1">
+      <t>サカエ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サンジュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新井　陽菜</t>
+    <rPh sb="0" eb="2">
+      <t>アライ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塚田　恵美</t>
+    <rPh sb="0" eb="2">
+      <t>ツカダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池田　桂菜</t>
+    <rPh sb="0" eb="2">
+      <t>イケダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カツラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流星</t>
+    <rPh sb="0" eb="2">
+      <t>リュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大嶋美和子</t>
+    <rPh sb="0" eb="2">
+      <t>オオシマ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ミワコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小澤　綾香</t>
+    <rPh sb="0" eb="2">
+      <t>オザワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アヤカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青山　瑞季</t>
+    <rPh sb="0" eb="2">
+      <t>アオヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ズイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒　早織</t>
+    <rPh sb="0" eb="2">
+      <t>イコマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松島　　愛</t>
+    <rPh sb="0" eb="2">
+      <t>マツシマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>門脇　真央</t>
+    <rPh sb="0" eb="2">
+      <t>カドワキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川シューティングクラブ</t>
+    <rPh sb="0" eb="3">
+      <t>カナガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一ノ渡　桜</t>
+    <rPh sb="0" eb="1">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワタリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三橋こすも</t>
+    <rPh sb="0" eb="2">
+      <t>ミツハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川西　　春</t>
+    <rPh sb="0" eb="2">
+      <t>カワニシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オール日大</t>
+    <rPh sb="3" eb="5">
+      <t>ニチダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田村　　亮</t>
+    <rPh sb="0" eb="2">
+      <t>タムラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古武家悠斗</t>
+    <rPh sb="0" eb="2">
+      <t>コタケ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥田　裕樹</t>
+    <rPh sb="0" eb="2">
+      <t>オクダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手塚　勇希</t>
+    <rPh sb="0" eb="2">
+      <t>テヅカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南出　裕志</t>
+    <rPh sb="0" eb="2">
+      <t>ミナミデ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅岡　祥平</t>
+    <rPh sb="0" eb="2">
+      <t>アサオカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮倉　大輔</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤクラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダイスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野口　優太</t>
+    <rPh sb="0" eb="2">
+      <t>ノグチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中島　　優</t>
+    <rPh sb="0" eb="2">
+      <t>ナカジマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Back Fire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信田　健介</t>
+    <rPh sb="0" eb="2">
+      <t>ノブタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田幸太郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウタロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石井　文人</t>
+    <rPh sb="0" eb="2">
+      <t>イシイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEAM KABASHIMA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青山　敬志</t>
+    <rPh sb="0" eb="2">
+      <t>アオヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有馬　朋輝</t>
+    <rPh sb="0" eb="2">
+      <t>アリマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トモキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西川　航矢</t>
+    <rPh sb="0" eb="2">
+      <t>ニシカワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワタル</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほにゃらら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三島　裕介</t>
+    <rPh sb="0" eb="2">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛田　康成</t>
+    <rPh sb="0" eb="2">
+      <t>モリタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤスナリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桑原　凌</t>
+    <rPh sb="0" eb="2">
+      <t>クワハラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長田　好生</t>
+    <rPh sb="0" eb="2">
+      <t>ナガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正満　孝太</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミツル</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木　純一</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田　直也</t>
+    <rPh sb="0" eb="2">
+      <t>オカダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナオヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>篠原　章宏</t>
+    <rPh sb="0" eb="2">
+      <t>シノハラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嘉山　　豪</t>
+    <rPh sb="0" eb="2">
+      <t>カヤマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DNS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホクリクテーオー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEAM KSC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEAM 神奈川</t>
+    <rPh sb="5" eb="8">
+      <t>カナガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各々</t>
+    <rPh sb="0" eb="2">
+      <t>オノオノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杉村　和翔</t>
+    <rPh sb="0" eb="2">
+      <t>スギムラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本　拓生</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タクオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>篠原　章宏</t>
+    <rPh sb="0" eb="2">
+      <t>シノハラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アキヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田　　亨</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>織田　祐宏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南出　裕志</t>
+    <rPh sb="0" eb="2">
+      <t>ミナミデ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ココロザシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松永　　修</t>
+    <rPh sb="0" eb="2">
+      <t>マツナガ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オサム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>景山　拓朗</t>
+    <rPh sb="0" eb="2">
+      <t>カゲヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タクロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三橋こすも</t>
+    <rPh sb="0" eb="2">
+      <t>ミハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲　　友美</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トモミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小寺　智也</t>
+    <rPh sb="0" eb="2">
+      <t>コデラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トモヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南　光太郎</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウタロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松本　大典</t>
+    <rPh sb="0" eb="2">
+      <t>マツモト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関川　智哉</t>
+    <rPh sb="0" eb="2">
+      <t>セキカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トモヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三浦　雅功</t>
+    <rPh sb="0" eb="2">
+      <t>ミウラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マサ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木曽　俊晴</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITALY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社 銀座銃砲店</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギンザ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田優子</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川崎　彩花</t>
+    <rPh sb="0" eb="2">
+      <t>カワサキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アヤ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林　百合恵</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gambaro Barbara</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nardelli Elania</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横山小夜香</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコヤマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石川真理絵</t>
+    <rPh sb="0" eb="2">
+      <t>イシカワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塚田詠里央</t>
+    <rPh sb="0" eb="2">
+      <t>ツカダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小沢　　楓</t>
+    <rPh sb="0" eb="2">
+      <t>オザワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カエデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小澤　綾香</t>
+    <rPh sb="0" eb="2">
+      <t>オザワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アヤ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>劉　炫慈</t>
+    <rPh sb="0" eb="1">
+      <t>リュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柳　あさこ</t>
+    <rPh sb="0" eb="1">
+      <t>ヤナギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中里　志隠</t>
+    <rPh sb="0" eb="2">
+      <t>ナカザト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ココロザシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -456,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D62887-572F-49AC-8CE1-113E14992275}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -494,6 +1436,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1828.1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -502,6 +1447,9 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>1827.6</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -510,6 +1458,9 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>1827.3</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -518,6 +1469,9 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>1820.3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -526,6 +1480,9 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>1812.6</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -533,6 +1490,34 @@
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1734.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1753.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1741.4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -543,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A856A3EC-70DA-4A55-A1BC-E60CBD3BCFBB}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -581,6 +1566,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>3472</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -589,6 +1589,21 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>3409</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -597,6 +1612,21 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>3385</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -605,6 +1635,21 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>3361</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -613,6 +1658,21 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>3352</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -621,19 +1681,81 @@
       <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>3331</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>3297</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>3264</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB411E5-09DC-4325-A3FC-D9483DE50812}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -668,6 +1790,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1828.1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -676,6 +1813,21 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>1827.6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -684,6 +1836,21 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>1827.3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -692,6 +1859,21 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>1820.3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -700,6 +1882,21 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>1812.6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -707,6 +1904,67 @@
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1734.4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1753.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1741.4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -718,13 +1976,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B459E9FF-7F73-4008-BCBC-33C3E5BE8025}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+      <selection activeCell="C2" sqref="C2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -756,6 +2017,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1828.1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -764,6 +2040,21 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>1827.6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -772,6 +2063,21 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>1827.3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -780,6 +2086,21 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>1820.3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -788,6 +2109,21 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>1812.6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -795,6 +2131,67 @@
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1734.4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1753.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1741.4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -805,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC361DCD-25A3-43F3-BB99-162C379AE88B}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -843,6 +2240,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>3406</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -851,6 +2263,21 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>3399</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -859,6 +2286,21 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>3344</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -867,6 +2309,21 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>3282</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -875,6 +2332,21 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>3108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -882,6 +2354,55 @@
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2335</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2178</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1162</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -892,10 +2413,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BEBF9D-7D08-4B30-8B10-2A07CFB3FA00}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -930,6 +2451,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1828.1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -938,6 +2474,21 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>1827.6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -946,6 +2497,21 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>1827.3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -954,6 +2520,21 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>1820.3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -962,6 +2543,21 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>1812.6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -969,6 +2565,67 @@
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1734.4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1753.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1741.4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -979,13 +2636,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C7D63E-20CF-4AD5-A317-30EB65A291C5}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1017,6 +2677,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1889.6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -1025,6 +2700,21 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>1874.8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -1033,6 +2723,21 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>1860</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -1041,6 +2746,21 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>1859.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -1049,6 +2769,21 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>1856.3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -1056,6 +2791,61 @@
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1840.1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>621.1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/results/team-position.xlsx
+++ b/results/team-position.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580DE027-E393-4436-94AB-EE62F8844F58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343421FD-40EC-4E25-9EF5-51E6D503CBC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="1470" windowWidth="21600" windowHeight="11835" activeTab="5" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
+    <workbookView xWindow="1530" yWindow="1290" windowWidth="18255" windowHeight="12435" activeTab="6" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
   </bookViews>
   <sheets>
     <sheet name="AR60" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="130">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1"/>
@@ -1033,6 +1033,227 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄北三銃士</t>
+    <rPh sb="0" eb="2">
+      <t>サカエキタ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サンジュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石田　裕一</t>
+    <rPh sb="0" eb="2">
+      <t>イシダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梅木　竜一</t>
+    <rPh sb="0" eb="2">
+      <t>ウメキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リュウイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長田　好生</t>
+    <rPh sb="0" eb="2">
+      <t>ナガタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨシオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐々木徹也</t>
+    <rPh sb="0" eb="3">
+      <t>ササキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テツヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉見　拓也</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タクヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手塚　優希</t>
+    <rPh sb="0" eb="2">
+      <t>テヅカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三島　裕介</t>
+    <rPh sb="0" eb="2">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古畑　晶椰</t>
+    <rPh sb="0" eb="2">
+      <t>フルハタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アキラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青山　拓史</t>
+    <rPh sb="0" eb="2">
+      <t>アオヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前田　裕太</t>
+    <rPh sb="0" eb="2">
+      <t>マエダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松枝　隼佑</t>
+    <rPh sb="0" eb="2">
+      <t>マツエダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安本　　滉</t>
+    <rPh sb="0" eb="2">
+      <t>ヤスモト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛田　泰成</t>
+    <rPh sb="0" eb="2">
+      <t>モリタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤスナリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高見　淳也</t>
+    <rPh sb="0" eb="2">
+      <t>タカミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前島　聖弥</t>
+    <rPh sb="0" eb="2">
+      <t>マエシマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小関　賢登</t>
+    <rPh sb="0" eb="2">
+      <t>オゼキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青山　敬志</t>
+    <rPh sb="0" eb="2">
+      <t>アオヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ココロザシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有馬　朋輝</t>
+    <rPh sb="0" eb="2">
+      <t>アリマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カガヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河田　　重</t>
+    <rPh sb="0" eb="2">
+      <t>カワタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1041,6 +1262,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1080,8 +1304,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1401,10 +1628,13 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1437,7 +1667,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1828.1</v>
+        <v>1857.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -1448,7 +1690,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1827.6</v>
+        <v>1846.8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1459,7 +1713,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1827.3</v>
+        <v>1414.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1470,7 +1736,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1820.3</v>
+        <v>1808.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1481,7 +1759,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1812.6</v>
+        <v>1796.3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1492,7 +1782,19 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1734.4</v>
+        <v>1793.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1503,7 +1805,19 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1753.5</v>
+        <v>1793.3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1514,15 +1828,25 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1741.4</v>
+        <v>1772.6</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2415,7 +2739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BEBF9D-7D08-4B30-8B10-2A07CFB3FA00}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:G9"/>
     </sheetView>
   </sheetViews>
@@ -2638,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C7D63E-20CF-4AD5-A317-30EB65A291C5}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2677,7 +3001,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1889.6</v>
       </c>
       <c r="D2" t="s">
@@ -2700,7 +3024,7 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1874.8</v>
       </c>
       <c r="D3" t="s">
@@ -2723,7 +3047,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1860</v>
       </c>
       <c r="D4" t="s">
@@ -2746,7 +3070,7 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1859.5</v>
       </c>
       <c r="D5" t="s">
@@ -2769,7 +3093,7 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1856.3</v>
       </c>
       <c r="D6" t="s">
@@ -2792,7 +3116,7 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1840.1</v>
       </c>
       <c r="D7" t="s">
@@ -2815,7 +3139,7 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>621.1</v>
       </c>
       <c r="D8" t="s">

--- a/results/team-position.xlsx
+++ b/results/team-position.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343421FD-40EC-4E25-9EF5-51E6D503CBC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE977031-050F-4924-829D-77A2E5E21D16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1290" windowWidth="18255" windowHeight="12435" activeTab="6" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
+    <workbookView xWindow="630" yWindow="690" windowWidth="12330" windowHeight="14775" activeTab="5" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
   </bookViews>
   <sheets>
     <sheet name="AR60" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="139">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1"/>
@@ -1254,6 +1254,92 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NARDELLI ELANIA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GAMBARO BARBARA</t>
+  </si>
+  <si>
+    <t>仲里　志隠</t>
+    <rPh sb="0" eb="2">
+      <t>ナカザト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ココロザシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>津久浦弘子</t>
+    <rPh sb="0" eb="3">
+      <t>ツクウラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒロコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樋口　咲希</t>
+    <rPh sb="0" eb="2">
+      <t>ヒグチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノゾミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長谷川由佳</t>
+    <rPh sb="0" eb="3">
+      <t>ハセガワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石川真理絵</t>
+    <rPh sb="0" eb="2">
+      <t>イシカワ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>マリエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倉脇　小夏</t>
+    <rPh sb="0" eb="1">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ワキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コナツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戸崎　祐子</t>
+    <rPh sb="0" eb="2">
+      <t>トザキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2303,7 +2389,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2342,19 +2428,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1828.1</v>
+        <v>1830.5</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -2365,19 +2451,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1827.6</v>
+        <v>1809</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2388,19 +2474,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1827.3</v>
+        <v>1797.2</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2411,19 +2497,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1820.3</v>
+        <v>1774.5</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -2434,19 +2520,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1812.6</v>
+        <v>1733.3</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -2457,19 +2543,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1734.4</v>
+        <v>1228.7</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -2479,21 +2562,6 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1753.5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -2502,25 +2570,11 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>1741.4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2739,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BEBF9D-7D08-4B30-8B10-2A07CFB3FA00}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2776,19 +2830,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1828.1</v>
+        <v>1830.5</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -2799,19 +2853,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1827.6</v>
+        <v>1809</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2822,19 +2876,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1827.3</v>
+        <v>1797.2</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2845,19 +2899,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1820.3</v>
+        <v>1774.5</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -2868,19 +2922,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1812.6</v>
+        <v>1733.3</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -2891,19 +2945,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1734.4</v>
+        <v>1228.7</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -2913,21 +2964,6 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1753.5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -2936,25 +2972,11 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>1741.4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2962,7 +2984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C7D63E-20CF-4AD5-A317-30EB65A291C5}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/results/team-position.xlsx
+++ b/results/team-position.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE977031-050F-4924-829D-77A2E5E21D16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA26C0C-86CA-4754-8F3D-98842D2EA455}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="690" windowWidth="12330" windowHeight="14775" activeTab="5" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
+    <workbookView xWindow="675" yWindow="855" windowWidth="13425" windowHeight="14775" activeTab="2" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
   </bookViews>
   <sheets>
     <sheet name="AR60" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="145">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1"/>
@@ -139,46 +139,586 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>塚田由紀子</t>
-    <rPh sb="0" eb="2">
-      <t>ツカダ</t>
+    <t>St.Paul's</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次郎長</t>
+    <rPh sb="0" eb="3">
+      <t>ジロチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄北三銃士</t>
+    <rPh sb="0" eb="1">
+      <t>サカエ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>キタ</t>
     </rPh>
     <rPh sb="2" eb="5">
-      <t>ユキコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>牧田亜佐美</t>
-    <rPh sb="0" eb="2">
-      <t>マキタ</t>
+      <t>サンジュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流星</t>
+    <rPh sb="0" eb="2">
+      <t>リュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大嶋美和子</t>
+    <rPh sb="0" eb="2">
+      <t>オオシマ</t>
     </rPh>
     <rPh sb="2" eb="5">
-      <t>アサミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>渡邊　穂稀</t>
-    <rPh sb="0" eb="2">
-      <t>ワタナベ</t>
+      <t>ミワコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒　早織</t>
+    <rPh sb="0" eb="2">
+      <t>イコマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松島　　愛</t>
+    <rPh sb="0" eb="2">
+      <t>マツシマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川シューティングクラブ</t>
+    <rPh sb="0" eb="3">
+      <t>カナガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一ノ渡　桜</t>
+    <rPh sb="0" eb="1">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワタリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オール日大</t>
+    <rPh sb="3" eb="5">
+      <t>ニチダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田村　　亮</t>
+    <rPh sb="0" eb="2">
+      <t>タムラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古武家悠斗</t>
+    <rPh sb="0" eb="2">
+      <t>コタケ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥田　裕樹</t>
+    <rPh sb="0" eb="2">
+      <t>オクダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手塚　勇希</t>
+    <rPh sb="0" eb="2">
+      <t>テヅカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南出　裕志</t>
+    <rPh sb="0" eb="2">
+      <t>ミナミデ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅岡　祥平</t>
+    <rPh sb="0" eb="2">
+      <t>アサオカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮倉　大輔</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤクラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダイスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野口　優太</t>
+    <rPh sb="0" eb="2">
+      <t>ノグチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中島　　優</t>
+    <rPh sb="0" eb="2">
+      <t>ナカジマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Back Fire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信田　健介</t>
+    <rPh sb="0" eb="2">
+      <t>ノブタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田幸太郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウタロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石井　文人</t>
+    <rPh sb="0" eb="2">
+      <t>イシイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEAM KABASHIMA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青山　敬志</t>
+    <rPh sb="0" eb="2">
+      <t>アオヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有馬　朋輝</t>
+    <rPh sb="0" eb="2">
+      <t>アリマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トモキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西川　航矢</t>
+    <rPh sb="0" eb="2">
+      <t>ニシカワ</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>ホ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>マレ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>St.Paul's</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>河野さゆり</t>
-    <rPh sb="0" eb="2">
-      <t>カワノ</t>
+      <t>ワタル</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほにゃらら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三島　裕介</t>
+    <rPh sb="0" eb="2">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛田　康成</t>
+    <rPh sb="0" eb="2">
+      <t>モリタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤスナリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桑原　凌</t>
+    <rPh sb="0" eb="2">
+      <t>クワハラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長田　好生</t>
+    <rPh sb="0" eb="2">
+      <t>ナガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正満　孝太</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミツル</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木　純一</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田　直也</t>
+    <rPh sb="0" eb="2">
+      <t>オカダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナオヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>篠原　章宏</t>
+    <rPh sb="0" eb="2">
+      <t>シノハラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嘉山　　豪</t>
+    <rPh sb="0" eb="2">
+      <t>カヤマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DNS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホクリクテーオー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEAM KSC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEAM 神奈川</t>
+    <rPh sb="5" eb="8">
+      <t>カナガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各々</t>
+    <rPh sb="0" eb="2">
+      <t>オノオノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杉村　和翔</t>
+    <rPh sb="0" eb="2">
+      <t>スギムラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本　拓生</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タクオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>篠原　章宏</t>
+    <rPh sb="0" eb="2">
+      <t>シノハラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アキヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田　　亨</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>織田　祐宏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南出　裕志</t>
+    <rPh sb="0" eb="2">
+      <t>ミナミデ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ココロザシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松永　　修</t>
+    <rPh sb="0" eb="2">
+      <t>マツナガ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オサム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>景山　拓朗</t>
+    <rPh sb="0" eb="2">
+      <t>カゲヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タクロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三橋こすも</t>
+    <rPh sb="0" eb="2">
+      <t>ミハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲　　友美</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トモミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小寺　智也</t>
+    <rPh sb="0" eb="2">
+      <t>コデラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トモヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南　光太郎</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウタロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松本　大典</t>
+    <rPh sb="0" eb="2">
+      <t>マツモト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関川　智哉</t>
+    <rPh sb="0" eb="2">
+      <t>セキカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トモヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三浦　雅功</t>
+    <rPh sb="0" eb="2">
+      <t>ミウラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マサ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木曽　俊晴</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITALY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社 銀座銃砲店</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギンザ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田優子</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -187,8 +727,11 @@
     <rPh sb="0" eb="2">
       <t>カワサキ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>アヤカ</t>
+    <rPh sb="3" eb="4">
+      <t>アヤ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -197,734 +740,6 @@
     <rPh sb="0" eb="1">
       <t>ハヤシ</t>
     </rPh>
-    <rPh sb="2" eb="5">
-      <t>ユリエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次郎長</t>
-    <rPh sb="0" eb="3">
-      <t>ジロチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>村松　佳香</t>
-    <rPh sb="0" eb="2">
-      <t>ムラマツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨシカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>和田愛加里</t>
-    <rPh sb="0" eb="2">
-      <t>ワダ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>サト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>川村弥佳沙</t>
-    <rPh sb="0" eb="2">
-      <t>カワムラ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>栄北三銃士</t>
-    <rPh sb="0" eb="1">
-      <t>サカエ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>キタ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>サンジュウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新井　陽菜</t>
-    <rPh sb="0" eb="2">
-      <t>アライ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>塚田　恵美</t>
-    <rPh sb="0" eb="2">
-      <t>ツカダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>エミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>池田　桂菜</t>
-    <rPh sb="0" eb="2">
-      <t>イケダ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カツラ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>流星</t>
-    <rPh sb="0" eb="2">
-      <t>リュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大嶋美和子</t>
-    <rPh sb="0" eb="2">
-      <t>オオシマ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ミワコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小澤　綾香</t>
-    <rPh sb="0" eb="2">
-      <t>オザワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アヤカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>青山　瑞季</t>
-    <rPh sb="0" eb="2">
-      <t>アオヤマ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ズイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フロッグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生駒　早織</t>
-    <rPh sb="0" eb="2">
-      <t>イコマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サオリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>松島　　愛</t>
-    <rPh sb="0" eb="2">
-      <t>マツシマ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>門脇　真央</t>
-    <rPh sb="0" eb="2">
-      <t>カドワキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>マオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>神奈川シューティングクラブ</t>
-    <rPh sb="0" eb="3">
-      <t>カナガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一ノ渡　桜</t>
-    <rPh sb="0" eb="1">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ワタリ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>サクラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>三橋こすも</t>
-    <rPh sb="0" eb="2">
-      <t>ミツハシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>川西　　春</t>
-    <rPh sb="0" eb="2">
-      <t>カワニシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オール日大</t>
-    <rPh sb="3" eb="5">
-      <t>ニチダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田村　　亮</t>
-    <rPh sb="0" eb="2">
-      <t>タムラ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>古武家悠斗</t>
-    <rPh sb="0" eb="2">
-      <t>コタケ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ユウト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>奥田　裕樹</t>
-    <rPh sb="0" eb="2">
-      <t>オクダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ユウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手塚　勇希</t>
-    <rPh sb="0" eb="2">
-      <t>テヅカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ユウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南出　裕志</t>
-    <rPh sb="0" eb="2">
-      <t>ミナミデ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>浅岡　祥平</t>
-    <rPh sb="0" eb="2">
-      <t>アサオカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウヘイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宮倉　大輔</t>
-    <rPh sb="0" eb="2">
-      <t>ミヤクラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ダイスケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>野口　優太</t>
-    <rPh sb="0" eb="2">
-      <t>ノグチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ユウタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中島　　優</t>
-    <rPh sb="0" eb="2">
-      <t>ナカジマ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Back Fire</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>信田　健介</t>
-    <rPh sb="0" eb="2">
-      <t>ノブタ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンスケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山田幸太郎</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>コウタロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>石井　文人</t>
-    <rPh sb="0" eb="2">
-      <t>イシイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブンジン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TEAM KABASHIMA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>青山　敬志</t>
-    <rPh sb="0" eb="2">
-      <t>アオヤマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タカシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有馬　朋輝</t>
-    <rPh sb="0" eb="2">
-      <t>アリマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トモキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>西川　航矢</t>
-    <rPh sb="0" eb="2">
-      <t>ニシカワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ワタル</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ほにゃらら</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>三島　裕介</t>
-    <rPh sb="0" eb="2">
-      <t>ミシマ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ユウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>盛田　康成</t>
-    <rPh sb="0" eb="2">
-      <t>モリタ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヤスナリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>桑原　凌</t>
-    <rPh sb="0" eb="2">
-      <t>クワハラ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長田　好生</t>
-    <rPh sb="0" eb="2">
-      <t>ナガタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ナマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正満　孝太</t>
-    <rPh sb="0" eb="1">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ミツル</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鈴木　純一</t>
-    <rPh sb="0" eb="2">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジュンイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岡田　直也</t>
-    <rPh sb="0" eb="2">
-      <t>オカダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナオヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>篠原　章宏</t>
-    <rPh sb="0" eb="2">
-      <t>シノハラ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>嘉山　　豪</t>
-    <rPh sb="0" eb="2">
-      <t>カヤマ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DNS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ホクリクテーオー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TEAM KSC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TEAM 神奈川</t>
-    <rPh sb="5" eb="8">
-      <t>カナガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各々</t>
-    <rPh sb="0" eb="2">
-      <t>オノオノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>杉村　和翔</t>
-    <rPh sb="0" eb="2">
-      <t>スギムラ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山本　拓生</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマモト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タクオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>篠原　章宏</t>
-    <rPh sb="0" eb="2">
-      <t>シノハラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アキヒロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>吉田　　亨</t>
-    <rPh sb="0" eb="2">
-      <t>ヨシダ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>織田　祐宏</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南出　裕志</t>
-    <rPh sb="0" eb="2">
-      <t>ミナミデ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ユウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ココロザシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>松永　　修</t>
-    <rPh sb="0" eb="2">
-      <t>マツナガ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オサム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>景山　拓朗</t>
-    <rPh sb="0" eb="2">
-      <t>カゲヤマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タクロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>三橋こすも</t>
-    <rPh sb="0" eb="2">
-      <t>ミハシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仲　　友美</t>
-    <rPh sb="0" eb="1">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トモミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小寺　智也</t>
-    <rPh sb="0" eb="2">
-      <t>コデラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トモヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南　光太郎</t>
-    <rPh sb="0" eb="1">
-      <t>ミナミ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>コウタロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>松本　大典</t>
-    <rPh sb="0" eb="2">
-      <t>マツモト</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>テン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>関川　智哉</t>
-    <rPh sb="0" eb="2">
-      <t>セキカワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トモヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>三浦　雅功</t>
-    <rPh sb="0" eb="2">
-      <t>ミウラ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マサ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>木曽　俊晴</t>
-    <rPh sb="0" eb="2">
-      <t>キソ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ITALY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>株式会社 銀座銃砲店</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ギンザ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジュウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>テン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山田優子</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ユウコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>川崎　彩花</t>
-    <rPh sb="0" eb="2">
-      <t>カワサキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アヤ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>林　百合恵</t>
-    <rPh sb="0" eb="1">
-      <t>ハヤシ</t>
-    </rPh>
     <rPh sb="2" eb="4">
       <t>ユリ</t>
     </rPh>
@@ -1340,6 +1155,239 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ユウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪EXSP</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーネット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高橋　秀典</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒデノリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大滝健太郎</t>
+    <rPh sb="0" eb="2">
+      <t>オオタキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケンタロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西川　航矢</t>
+    <rPh sb="0" eb="2">
+      <t>ニシカワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町田健太郎</t>
+    <rPh sb="0" eb="2">
+      <t>マチダ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケンタロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>津場　恭平</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平澤　卓也</t>
+    <rPh sb="0" eb="2">
+      <t>ヒラサワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タクヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巣原　　剛</t>
+    <rPh sb="0" eb="2">
+      <t>スハラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正満　孝太</t>
+    <rPh sb="0" eb="2">
+      <t>マサミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垣見　昌男</t>
+    <rPh sb="0" eb="1">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マサオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>織田　祐宏</t>
+    <rPh sb="0" eb="2">
+      <t>オタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林　　龍一</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リュウイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田　　亨</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濱田　和也</t>
+    <rPh sb="0" eb="1">
+      <t>ハマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カズヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝比奈昌利</t>
+    <rPh sb="0" eb="3">
+      <t>アサヒナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マサトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武川　正一</t>
+    <rPh sb="0" eb="2">
+      <t>タケカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒本　俊明</t>
+    <rPh sb="0" eb="2">
+      <t>アラモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トシアキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内田　昌宏</t>
+    <rPh sb="0" eb="2">
+      <t>ウチダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マサヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中　信彦</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ノブヒコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塩川　龍矢</t>
+    <rPh sb="0" eb="2">
+      <t>シオカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タツヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝岡　弘幸</t>
+    <rPh sb="0" eb="2">
+      <t>カツオカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒロユキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠藤　建次</t>
+    <rPh sb="0" eb="2">
+      <t>エンドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1756,16 +1804,16 @@
         <v>1857.5</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -1779,16 +1827,16 @@
         <v>1846.8</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1802,16 +1850,16 @@
         <v>1414.5</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1825,16 +1873,16 @@
         <v>1808.5</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1851,13 +1899,13 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1874,13 +1922,13 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1894,16 +1942,16 @@
         <v>1793.3</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1917,16 +1965,16 @@
         <v>1772.6</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1980,16 +2028,16 @@
         <v>3472</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -2003,16 +2051,16 @@
         <v>3409</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2026,16 +2074,16 @@
         <v>3385</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2049,16 +2097,16 @@
         <v>3361</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -2072,16 +2120,16 @@
         <v>3352</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -2095,16 +2143,16 @@
         <v>3331</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -2118,16 +2166,16 @@
         <v>3297</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -2141,16 +2189,16 @@
         <v>3264</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2164,11 +2212,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB411E5-09DC-4325-A3FC-D9483DE50812}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -2201,19 +2255,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1828.1</v>
+        <v>1853.6</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -2224,19 +2278,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1827.6</v>
+        <v>1853.4</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2247,19 +2301,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1827.3</v>
+        <v>1842.3</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2270,19 +2324,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1820.3</v>
+        <v>1841.7</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -2293,19 +2347,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1812.6</v>
+        <v>1823.4</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -2316,19 +2370,19 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1734.4</v>
+        <v>1823.3</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -2339,19 +2393,19 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1753.5</v>
+        <v>1821.6</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -2362,19 +2416,19 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1741.4</v>
+        <v>1820.4</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2431,16 +2485,16 @@
         <v>1830.5</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -2454,16 +2508,16 @@
         <v>1809</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2477,16 +2531,16 @@
         <v>1797.2</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2503,13 +2557,13 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -2523,16 +2577,16 @@
         <v>1733.3</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -2546,13 +2600,13 @@
         <v>1228.7</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -2622,16 +2676,16 @@
         <v>3406</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -2645,16 +2699,16 @@
         <v>3399</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2668,16 +2722,16 @@
         <v>3344</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2691,16 +2745,16 @@
         <v>3282</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -2717,7 +2771,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -2737,13 +2791,13 @@
         <v>2335</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -2757,13 +2811,13 @@
         <v>2178</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -2777,10 +2831,10 @@
         <v>1162</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2793,7 +2847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BEBF9D-7D08-4B30-8B10-2A07CFB3FA00}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2833,16 +2887,16 @@
         <v>1830.5</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -2856,16 +2910,16 @@
         <v>1809</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2879,16 +2933,16 @@
         <v>1797.2</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2905,13 +2959,13 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -2925,16 +2979,16 @@
         <v>1733.3</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -2948,13 +3002,13 @@
         <v>1228.7</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -3027,16 +3081,16 @@
         <v>1889.6</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -3050,16 +3104,16 @@
         <v>1874.8</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -3073,16 +3127,16 @@
         <v>1860</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -3096,16 +3150,16 @@
         <v>1859.5</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -3122,13 +3176,13 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -3142,16 +3196,16 @@
         <v>1840.1</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -3165,10 +3219,10 @@
         <v>621.1</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -3179,19 +3233,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
